--- a/analysis/Household_Survey_Analysis.xlsx
+++ b/analysis/Household_Survey_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalifa Omade\Documents\Biogas_hybrid_microgrid\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D229D136-1D01-4E9A-93E9-6C325CDE2C22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56293B05-7193-4DE4-B5ED-4DE8024A43E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>House ID</t>
   </si>
@@ -42,71 +42,86 @@
     <t>Charcoal</t>
   </si>
   <si>
-    <t>Frequency (Fuel/time)</t>
-  </si>
-  <si>
     <t>Solid waste/day (Kg)</t>
   </si>
   <si>
-    <t>12.5kg/45days</t>
-  </si>
-  <si>
-    <t>12.5kg/40days</t>
-  </si>
-  <si>
-    <t>12.5kg/42days</t>
-  </si>
-  <si>
-    <t>3kg/50days</t>
-  </si>
-  <si>
-    <t>12.5kg/30days</t>
-  </si>
-  <si>
-    <t>12.5kg/35days</t>
-  </si>
-  <si>
-    <t>20kg/65days</t>
-  </si>
-  <si>
-    <t>12.5kg/25days</t>
-  </si>
-  <si>
-    <t>15kg/35days</t>
-  </si>
-  <si>
-    <t>2k/2days</t>
-  </si>
-  <si>
-    <t>6kg/50days</t>
-  </si>
-  <si>
-    <t>15kg/40days</t>
-  </si>
-  <si>
-    <t>50kg/12K/7days=7.14kg/d</t>
-  </si>
-  <si>
-    <t>4k/5days=3.2kg/d</t>
-  </si>
-  <si>
-    <t>12.5kg/33days</t>
-  </si>
-  <si>
-    <t>4kg/day</t>
-  </si>
-  <si>
     <t>LPG Equivalent/Day</t>
   </si>
   <si>
     <t>Useful Energy/Day</t>
+  </si>
+  <si>
+    <t>W001</t>
+  </si>
+  <si>
+    <t>W002</t>
+  </si>
+  <si>
+    <t>W003</t>
+  </si>
+  <si>
+    <t>W004</t>
+  </si>
+  <si>
+    <t>W005</t>
+  </si>
+  <si>
+    <t>W006</t>
+  </si>
+  <si>
+    <t>W007</t>
+  </si>
+  <si>
+    <t>W008</t>
+  </si>
+  <si>
+    <t>W009</t>
+  </si>
+  <si>
+    <t>W010</t>
+  </si>
+  <si>
+    <t>W011</t>
+  </si>
+  <si>
+    <t>W012</t>
+  </si>
+  <si>
+    <t>W013</t>
+  </si>
+  <si>
+    <t>W014</t>
+  </si>
+  <si>
+    <t>W015</t>
+  </si>
+  <si>
+    <t>W016</t>
+  </si>
+  <si>
+    <t>W017</t>
+  </si>
+  <si>
+    <t>W018</t>
+  </si>
+  <si>
+    <t>W019</t>
+  </si>
+  <si>
+    <t>W020</t>
+  </si>
+  <si>
+    <t>Time taken (days)</t>
+  </si>
+  <si>
+    <t>Fuel mass (KG)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,6 +133,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -431,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -442,11 +463,11 @@
     <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22.6328125" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,28 +478,31 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1</v>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -486,29 +510,32 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>12.5</v>
+      </c>
+      <c r="E2">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G2" s="2">
         <v>7</v>
       </c>
-      <c r="E2" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F2" s="2">
-        <v>7</v>
-      </c>
-      <c r="G2">
+      <c r="H2">
         <v>1.2</v>
       </c>
-      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2</v>
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -516,29 +543,32 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="D3">
+        <v>12.5</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2">
         <v>0.31</v>
       </c>
-      <c r="F3" s="2">
+      <c r="G3" s="2">
         <v>7.9</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>1.8</v>
       </c>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>3</v>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -546,29 +576,32 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="D4">
+        <v>12.5</v>
+      </c>
+      <c r="E4">
+        <v>42</v>
+      </c>
+      <c r="F4" s="2">
         <v>0.3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>7.6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.8</v>
       </c>
-      <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -576,29 +609,32 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5" s="2">
         <v>0.06</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1.5</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.3</v>
       </c>
-      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>5</v>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -606,29 +642,32 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6">
+        <v>12.5</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2">
         <v>0.42</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>10.6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2.7</v>
       </c>
-      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>6</v>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -636,29 +675,32 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
+      <c r="D7">
+        <v>12.5</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7" s="2">
         <v>0.36</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>9.1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1.4</v>
       </c>
-      <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>7</v>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -666,29 +708,32 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2">
         <v>0.31</v>
       </c>
-      <c r="F8" s="2">
+      <c r="G8" s="2">
         <v>7.9</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>1.4</v>
       </c>
-      <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>8</v>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -696,29 +741,32 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="2">
+      <c r="D9">
+        <v>12.5</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
         <v>0.5</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>12.6</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>9</v>
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>16</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -726,29 +774,32 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>12.5</v>
+      </c>
+      <c r="E10">
+        <v>45</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G10" s="2">
         <v>7</v>
       </c>
-      <c r="E10" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F10" s="2">
-        <v>7</v>
-      </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.9</v>
       </c>
-      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>10</v>
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>17</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -756,29 +807,32 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11">
         <v>15</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2">
         <v>0.43</v>
       </c>
-      <c r="F11" s="2">
+      <c r="G11" s="2">
         <v>10.9</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.6</v>
       </c>
-      <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>11</v>
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -786,29 +840,32 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.3</v>
+      <c r="D12">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
       </c>
       <c r="F12" s="2">
-        <v>7.5</v>
-      </c>
-      <c r="G12">
+        <v>1.23</v>
+      </c>
+      <c r="G12" s="2">
+        <v>31.1</v>
+      </c>
+      <c r="H12">
         <v>3.7</v>
       </c>
-      <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>12</v>
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -816,29 +873,32 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2">
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13" s="2">
         <v>0.12</v>
       </c>
-      <c r="F13" s="2">
-        <v>3</v>
-      </c>
-      <c r="G13">
+      <c r="G13" s="2">
+        <v>3</v>
+      </c>
+      <c r="H13">
         <v>0.6</v>
       </c>
-      <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>13</v>
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -846,29 +906,32 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14">
+        <v>12.5</v>
+      </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G14" s="2">
         <v>7</v>
       </c>
-      <c r="E14" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F14" s="2">
-        <v>7</v>
-      </c>
-      <c r="G14">
+      <c r="H14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>14</v>
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>21</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -876,29 +939,32 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="2">
+      <c r="D15">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>40</v>
+      </c>
+      <c r="F15" s="2">
         <v>0.38</v>
       </c>
-      <c r="F15" s="2">
+      <c r="G15" s="2">
         <v>9.6</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>15</v>
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>22</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -906,29 +972,32 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2">
         <v>2.12</v>
       </c>
-      <c r="F16" s="2">
+      <c r="G16" s="2">
         <v>53.6</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>8.8000000000000007</v>
       </c>
-      <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>16</v>
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>23</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -936,29 +1005,32 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17" s="2">
+      <c r="D17">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="2">
         <v>0.95</v>
       </c>
-      <c r="F17" s="2">
+      <c r="G17" s="2">
         <v>24</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>1.5</v>
       </c>
-      <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>17</v>
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -966,29 +1038,32 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2">
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18" s="2">
         <v>0.12</v>
       </c>
-      <c r="F18" s="2">
-        <v>3</v>
-      </c>
-      <c r="G18">
+      <c r="G18" s="2">
+        <v>3</v>
+      </c>
+      <c r="H18">
         <v>0.4</v>
       </c>
-      <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>18</v>
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>25</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -996,29 +1071,32 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="2">
+      <c r="D19">
+        <v>12.5</v>
+      </c>
+      <c r="E19">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2">
         <v>0.38</v>
       </c>
-      <c r="F19" s="2">
+      <c r="G19" s="2">
         <v>9.6</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>1.2</v>
       </c>
-      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>19</v>
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>26</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1026,29 +1104,32 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2">
-        <v>0.38</v>
+      <c r="D20">
+        <v>12.5</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
       </c>
       <c r="F20" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="G20">
+        <v>0.36</v>
+      </c>
+      <c r="G20" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="H20">
         <v>1.3</v>
       </c>
-      <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>20</v>
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>27</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -1056,33 +1137,31 @@
       <c r="C21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
         <v>1.19</v>
       </c>
-      <c r="F21" s="2">
+      <c r="G21" s="2">
         <v>30</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>1.3</v>
       </c>
-      <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="G22">
-        <f>SUM(G2:G21)</f>
-        <v>36.5</v>
-      </c>
+      <c r="P21" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analysis/Household_Survey_Analysis.xlsx
+++ b/analysis/Household_Survey_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khalifa Omade\Documents\Biogas_hybrid_microgrid\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56293B05-7193-4DE4-B5ED-4DE8024A43E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BEABB6B-8A10-4952-B93B-4CA7889E3A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>House ID</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Solid waste/day (Kg)</t>
-  </si>
-  <si>
-    <t>LPG Equivalent/Day</t>
-  </si>
-  <si>
-    <t>Useful Energy/Day</t>
   </si>
   <si>
     <t>W001</t>
@@ -455,7 +449,7 @@
   <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -463,8 +457,9 @@
     <col min="2" max="2" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="22.6328125" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.6328125" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
@@ -478,18 +473,12 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1"/>
@@ -502,7 +491,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -516,15 +505,10 @@
       <c r="E2">
         <v>45</v>
       </c>
-      <c r="F2" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G2" s="2">
-        <v>7</v>
-      </c>
-      <c r="H2">
+      <c r="F2">
         <v>1.2</v>
       </c>
+      <c r="G2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -535,7 +519,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -549,15 +533,10 @@
       <c r="E3">
         <v>40</v>
       </c>
-      <c r="F3" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="G3" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="H3">
+      <c r="F3">
         <v>1.8</v>
       </c>
+      <c r="G3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -568,7 +547,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -582,15 +561,10 @@
       <c r="E4">
         <v>42</v>
       </c>
-      <c r="F4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="H4">
+      <c r="F4">
         <v>0.8</v>
       </c>
+      <c r="G4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -601,7 +575,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -615,15 +589,10 @@
       <c r="E5">
         <v>50</v>
       </c>
-      <c r="F5" s="2">
-        <v>0.06</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="H5">
+      <c r="F5">
         <v>0.3</v>
       </c>
+      <c r="G5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -634,7 +603,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -648,15 +617,10 @@
       <c r="E6">
         <v>30</v>
       </c>
-      <c r="F6" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="G6" s="2">
-        <v>10.6</v>
-      </c>
-      <c r="H6">
+      <c r="F6">
         <v>2.7</v>
       </c>
+      <c r="G6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -667,7 +631,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
         <v>4</v>
@@ -681,15 +645,10 @@
       <c r="E7">
         <v>35</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="G7" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="H7">
+      <c r="F7">
         <v>1.4</v>
       </c>
+      <c r="G7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -700,7 +659,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -714,15 +673,10 @@
       <c r="E8">
         <v>65</v>
       </c>
-      <c r="F8" s="2">
-        <v>0.31</v>
-      </c>
-      <c r="G8" s="2">
-        <v>7.9</v>
-      </c>
-      <c r="H8">
+      <c r="F8">
         <v>1.4</v>
       </c>
+      <c r="G8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
@@ -733,7 +687,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>6</v>
@@ -747,15 +701,10 @@
       <c r="E9">
         <v>25</v>
       </c>
-      <c r="F9" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="G9" s="2">
-        <v>12.6</v>
-      </c>
-      <c r="H9">
+      <c r="F9">
         <v>2.2000000000000002</v>
       </c>
+      <c r="G9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
@@ -766,7 +715,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -780,15 +729,10 @@
       <c r="E10">
         <v>45</v>
       </c>
-      <c r="F10" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G10" s="2">
-        <v>7</v>
-      </c>
-      <c r="H10">
+      <c r="F10">
         <v>0.9</v>
       </c>
+      <c r="G10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
@@ -799,7 +743,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>4</v>
@@ -813,15 +757,10 @@
       <c r="E11">
         <v>35</v>
       </c>
-      <c r="F11" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="G11" s="2">
-        <v>10.9</v>
-      </c>
-      <c r="H11">
+      <c r="F11">
         <v>1.6</v>
       </c>
+      <c r="G11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -832,7 +771,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12">
         <v>10</v>
@@ -846,15 +785,10 @@
       <c r="E12">
         <v>2</v>
       </c>
-      <c r="F12" s="2">
-        <v>1.23</v>
-      </c>
-      <c r="G12" s="2">
-        <v>31.1</v>
-      </c>
-      <c r="H12">
+      <c r="F12">
         <v>3.7</v>
       </c>
+      <c r="G12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
@@ -865,7 +799,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -879,15 +813,10 @@
       <c r="E13">
         <v>50</v>
       </c>
-      <c r="F13" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3</v>
-      </c>
-      <c r="H13">
+      <c r="F13">
         <v>0.6</v>
       </c>
+      <c r="G13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
@@ -898,7 +827,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -912,15 +841,10 @@
       <c r="E14">
         <v>45</v>
       </c>
-      <c r="F14" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="G14" s="2">
-        <v>7</v>
-      </c>
-      <c r="H14">
+      <c r="F14">
         <v>1.1000000000000001</v>
       </c>
+      <c r="G14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
@@ -931,7 +855,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>5</v>
@@ -945,15 +869,10 @@
       <c r="E15">
         <v>40</v>
       </c>
-      <c r="F15" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="G15" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="H15">
+      <c r="F15">
         <v>2.2999999999999998</v>
       </c>
+      <c r="G15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
@@ -964,7 +883,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -978,15 +897,10 @@
       <c r="E16">
         <v>7</v>
       </c>
-      <c r="F16" s="2">
-        <v>2.12</v>
-      </c>
-      <c r="G16" s="2">
-        <v>53.6</v>
-      </c>
-      <c r="H16">
+      <c r="F16">
         <v>8.8000000000000007</v>
       </c>
+      <c r="G16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
@@ -997,7 +911,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>7</v>
@@ -1011,15 +925,10 @@
       <c r="E17">
         <v>5</v>
       </c>
-      <c r="F17" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="G17" s="2">
-        <v>24</v>
-      </c>
-      <c r="H17">
+      <c r="F17">
         <v>1.5</v>
       </c>
+      <c r="G17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
@@ -1030,7 +939,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -1044,15 +953,10 @@
       <c r="E18">
         <v>50</v>
       </c>
-      <c r="F18" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3</v>
-      </c>
-      <c r="H18">
+      <c r="F18">
         <v>0.4</v>
       </c>
+      <c r="G18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
@@ -1063,7 +967,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -1077,15 +981,10 @@
       <c r="E19">
         <v>33</v>
       </c>
-      <c r="F19" s="2">
-        <v>0.38</v>
-      </c>
-      <c r="G19" s="2">
-        <v>9.6</v>
-      </c>
-      <c r="H19">
+      <c r="F19">
         <v>1.2</v>
       </c>
+      <c r="G19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
@@ -1096,7 +995,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>5</v>
@@ -1110,15 +1009,10 @@
       <c r="E20">
         <v>35</v>
       </c>
-      <c r="F20" s="2">
-        <v>0.36</v>
-      </c>
-      <c r="G20" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="H20">
+      <c r="F20">
         <v>1.3</v>
       </c>
+      <c r="G20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
@@ -1129,7 +1023,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>6</v>
@@ -1143,15 +1037,10 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="2">
-        <v>1.19</v>
-      </c>
-      <c r="G21" s="2">
-        <v>30</v>
-      </c>
-      <c r="H21">
+      <c r="F21">
         <v>1.3</v>
       </c>
+      <c r="G21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
